--- a/Project706_J. A. Long(2006).xlsx
+++ b/Project706_J. A. Long(2006).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/remi/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D1E5A9-EF34-214C-85BB-EC0A39862F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A5C638-D133-5245-9EA1-238D7AD7E116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" xr2:uid="{78ADB668-0A1D-7E4D-9DAF-AEFEFC7B5128}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="123">
   <si>
     <t>Charlabels</t>
   </si>
@@ -186,9 +186,6 @@
     <t xml:space="preserve"> [29] 'Median postrostral:'</t>
   </si>
   <si>
-    <t>Reformat</t>
-  </si>
-  <si>
     <t xml:space="preserve"> [30] 'Number of nasals:'</t>
   </si>
   <si>
@@ -442,13 +439,19 @@
   </si>
   <si>
     <t xml:space="preserve"> [114] 'lateral rostral'</t>
+  </si>
+  <si>
+    <t>N;0=0;1=1;2=0</t>
+  </si>
+  <si>
+    <t>NT2;0=11;1=12;2=0-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -477,19 +480,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -504,7 +507,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -512,9 +515,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -536,50 +537,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>9378</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>183210</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>345046</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>40688</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC47FA94-C03C-384B-9978-6740F77BA6B8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8670778" y="5745810"/>
-          <a:ext cx="2812168" cy="670278"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1649540</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -587,7 +544,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>79746</xdr:colOff>
+      <xdr:colOff>79745</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -605,7 +562,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -631,22 +588,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>16934</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>33866</xdr:rowOff>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>397934</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>122766</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>27940</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F4DBEF6-15C2-C567-DD28-DAF9BA54C616}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3157A585-BFDD-2B76-C4A7-36A0B5F9BD4B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -655,59 +612,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8669867" y="2963333"/>
-          <a:ext cx="2870200" cy="698500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>8364</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>4627</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>225028</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>80827</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AFB4060-017B-9A18-9D9A-805446E49F64}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8677494" y="16680279"/>
-          <a:ext cx="6014491" cy="683591"/>
+          <a:off x="8686800" y="838200"/>
+          <a:ext cx="9083040" cy="5676900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1062,13 +975,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2295819D-64F8-2241-8706-9DDF2FCC4E78}">
   <dimension ref="A1:C115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="70" customWidth="1"/>
+    <col min="1" max="1" width="83.1640625" customWidth="1"/>
     <col min="2" max="3" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1237,14 +1150,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="5"/>
+      <c r="B16" s="5" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -1389,18 +1301,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="6"/>
+      <c r="B30" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" s="3"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>4</v>
@@ -1411,7 +1323,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>7</v>
@@ -1422,7 +1334,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>7</v>
@@ -1433,7 +1345,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>7</v>
@@ -1444,7 +1356,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>4</v>
@@ -1455,7 +1367,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>4</v>
@@ -1466,7 +1378,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>7</v>
@@ -1477,7 +1389,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>4</v>
@@ -1488,7 +1400,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>4</v>
@@ -1499,7 +1411,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>7</v>
@@ -1510,7 +1422,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>7</v>
@@ -1521,7 +1433,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>4</v>
@@ -1532,7 +1444,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>4</v>
@@ -1543,7 +1455,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>7</v>
@@ -1554,7 +1466,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>7</v>
@@ -1565,7 +1477,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>7</v>
@@ -1576,7 +1488,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>4</v>
@@ -1587,7 +1499,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>4</v>
@@ -1598,7 +1510,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>7</v>
@@ -1609,7 +1521,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>4</v>
@@ -1620,7 +1532,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>7</v>
@@ -1631,7 +1543,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>7</v>
@@ -1642,7 +1554,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>4</v>
@@ -1653,7 +1565,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>7</v>
@@ -1664,7 +1576,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>4</v>
@@ -1675,7 +1587,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>7</v>
@@ -1686,7 +1598,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>7</v>
@@ -1697,7 +1609,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>7</v>
@@ -1708,7 +1620,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>7</v>
@@ -1719,7 +1631,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>7</v>
@@ -1730,7 +1642,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>7</v>
@@ -1741,7 +1653,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>4</v>
@@ -1752,7 +1664,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>7</v>
@@ -1763,7 +1675,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>7</v>
@@ -1774,7 +1686,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>7</v>
@@ -1785,7 +1697,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>7</v>
@@ -1796,7 +1708,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>7</v>
@@ -1807,7 +1719,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>4</v>
@@ -1818,7 +1730,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>4</v>
@@ -1829,7 +1741,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>7</v>
@@ -1840,7 +1752,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>7</v>
@@ -1851,7 +1763,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>7</v>
@@ -1862,7 +1774,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>7</v>
@@ -1873,7 +1785,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>7</v>
@@ -1884,7 +1796,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>4</v>
@@ -1895,7 +1807,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>7</v>
@@ -1906,7 +1818,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>7</v>
@@ -1917,7 +1829,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>7</v>
@@ -1928,7 +1840,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>4</v>
@@ -1939,7 +1851,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>4</v>
@@ -1950,7 +1862,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>7</v>
@@ -1961,7 +1873,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>7</v>
@@ -1972,27 +1884,27 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
         <v>89</v>
       </c>
-      <c r="B83" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C84" s="7"/>
+      <c r="B84" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C84" s="4"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>7</v>
@@ -2003,7 +1915,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>4</v>
@@ -2014,7 +1926,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>7</v>
@@ -2025,7 +1937,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>4</v>
@@ -2036,7 +1948,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>4</v>
@@ -2047,7 +1959,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>4</v>
@@ -2058,7 +1970,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>4</v>
@@ -2069,7 +1981,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>4</v>
@@ -2080,7 +1992,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>4</v>
@@ -2091,7 +2003,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>4</v>
@@ -2102,7 +2014,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>7</v>
@@ -2113,7 +2025,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>4</v>
@@ -2124,7 +2036,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>4</v>
@@ -2135,7 +2047,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>7</v>
@@ -2146,7 +2058,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>7</v>
@@ -2157,7 +2069,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>4</v>
@@ -2168,7 +2080,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>7</v>
@@ -2179,7 +2091,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>4</v>
@@ -2190,7 +2102,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>7</v>
@@ -2201,7 +2113,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>4</v>
@@ -2212,7 +2124,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>7</v>
@@ -2223,7 +2135,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>7</v>
@@ -2234,7 +2146,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>4</v>
@@ -2245,7 +2157,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>4</v>
@@ -2256,7 +2168,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>4</v>
@@ -2267,7 +2179,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>4</v>
@@ -2278,7 +2190,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>4</v>
@@ -2289,7 +2201,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B112" t="s">
         <v>4</v>
@@ -2300,7 +2212,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B113" t="s">
         <v>4</v>
@@ -2311,7 +2223,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B114" t="s">
         <v>4</v>
@@ -2322,7 +2234,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B115" t="s">
         <v>4</v>

--- a/Project706_J. A. Long(2006).xlsx
+++ b/Project706_J. A. Long(2006).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/remi/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/remi/Desktop/Finished &amp; Uploaded copy 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A5C638-D133-5245-9EA1-238D7AD7E116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE9E681-213B-5C4B-BB40-2A9CC0F584A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" xr2:uid="{78ADB668-0A1D-7E4D-9DAF-AEFEFC7B5128}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{78ADB668-0A1D-7E4D-9DAF-AEFEFC7B5128}"/>
   </bookViews>
   <sheets>
     <sheet name="Project 706" sheetId="2" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="126">
   <si>
     <t>Charlabels</t>
   </si>
@@ -87,9 +87,6 @@
     <t>Unseen States</t>
   </si>
   <si>
-    <t>[1] 'Parasymphysial plate:'</t>
-  </si>
-  <si>
     <t>Transformational</t>
   </si>
   <si>
@@ -445,13 +442,25 @@
   </si>
   <si>
     <t>NT2;0=11;1=12;2=0-</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1] 'Parasymphysial plate:'</t>
+  </si>
+  <si>
+    <t>NT?;0=0-;1=11;2=12;3=13</t>
+  </si>
+  <si>
+    <t>NT?;0=0-;1=11;2=12</t>
+  </si>
+  <si>
+    <t>NT?;0=11;1=12;2=0-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -480,12 +489,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -507,15 +510,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,66 +538,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1649540</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>42334</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>14598</xdr:rowOff>
+      <xdr:rowOff>33865</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>79745</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0236BC0C-45D4-C241-B6AE-4DE5365E77B6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8647240" y="293998"/>
-          <a:ext cx="9174406" cy="544202"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>27940</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>8556</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -612,15 +563,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8686800" y="838200"/>
-          <a:ext cx="9083040" cy="5676900"/>
+          <a:off x="10524067" y="321732"/>
+          <a:ext cx="10727266" cy="6680291"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -975,1272 +926,1264 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2295819D-64F8-2241-8706-9DDF2FCC4E78}">
   <dimension ref="A1:C115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="83.1640625" customWidth="1"/>
+    <col min="1" max="1" width="83.33203125" customWidth="1"/>
     <col min="2" max="3" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="22" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>5</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>5</v>
+        <v>16</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>5</v>
+        <v>17</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>20</v>
       </c>
-      <c r="B15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>121</v>
+      <c r="B16" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>8</v>
+        <v>21</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>5</v>
+        <v>22</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>8</v>
+        <v>24</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>8</v>
+        <v>25</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>8</v>
+        <v>26</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>8</v>
+        <v>27</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>8</v>
+        <v>28</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>8</v>
+        <v>29</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>8</v>
+        <v>30</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>8</v>
+        <v>32</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C30" s="3"/>
+      <c r="B30" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C30" s="1"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>8</v>
+        <v>35</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>8</v>
+        <v>36</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>8</v>
+        <v>37</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>8</v>
+        <v>38</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>5</v>
+        <v>39</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>5</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>8</v>
+        <v>41</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>8</v>
+        <v>42</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>5</v>
+        <v>43</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>8</v>
+        <v>44</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>8</v>
+        <v>45</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>5</v>
+        <v>46</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>5</v>
+        <v>47</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>8</v>
+        <v>48</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>8</v>
+        <v>49</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>8</v>
+        <v>50</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>5</v>
+        <v>51</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>4</v>
+        <v>52</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="C48" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>8</v>
+        <v>53</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>5</v>
+        <v>54</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>8</v>
+        <v>55</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>57</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>8</v>
+        <v>56</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>58</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>5</v>
+        <v>57</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>59</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>8</v>
+        <v>58</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>60</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>5</v>
+        <v>59</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>61</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>62</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>8</v>
+        <v>61</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>63</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>8</v>
+        <v>62</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>64</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>8</v>
+        <v>63</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>65</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>8</v>
+        <v>64</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>66</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>8</v>
+        <v>65</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>67</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>5</v>
+        <v>66</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>68</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>8</v>
+        <v>67</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>69</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>8</v>
+        <v>68</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>70</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>8</v>
+        <v>69</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>71</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>8</v>
+        <v>70</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>72</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>8</v>
+        <v>71</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>73</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>8</v>
+        <v>72</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>74</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>5</v>
+        <v>73</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>75</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>8</v>
+        <v>74</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>76</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>8</v>
+        <v>75</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>77</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>8</v>
+        <v>76</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>78</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>8</v>
+        <v>77</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>79</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>8</v>
+        <v>78</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>80</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>5</v>
+        <v>79</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>81</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>8</v>
+        <v>80</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>82</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>8</v>
+        <v>81</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>83</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>8</v>
+        <v>82</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>84</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>5</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C79" s="1"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>85</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>5</v>
+        <v>84</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>86</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>8</v>
+        <v>85</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>87</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>8</v>
+        <v>86</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>87</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
         <v>88</v>
       </c>
-      <c r="B83" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>89</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C84" s="4"/>
+      <c r="B84" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C84" s="2"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>90</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>8</v>
+        <v>89</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>91</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>5</v>
+        <v>90</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>92</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>8</v>
+        <v>91</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>93</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>5</v>
+        <v>92</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>94</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>5</v>
+        <v>93</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>95</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>5</v>
+        <v>94</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>96</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>5</v>
+        <v>95</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>97</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>5</v>
+        <v>96</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>98</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>5</v>
+        <v>97</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>99</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>5</v>
+        <v>98</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>100</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>8</v>
+        <v>99</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>101</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>5</v>
+        <v>100</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>102</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>8</v>
+        <v>101</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>103</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>8</v>
+        <v>102</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>104</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>8</v>
+        <v>103</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>105</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>5</v>
+        <v>104</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>106</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>8</v>
+        <v>105</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>107</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>5</v>
+        <v>106</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>108</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>8</v>
+        <v>107</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>109</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>5</v>
+        <v>108</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>110</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>8</v>
+        <v>109</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>111</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>8</v>
+        <v>110</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>112</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>8</v>
+        <v>111</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>113</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>5</v>
+        <v>112</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>114</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>5</v>
+        <v>113</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>115</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>8</v>
+        <v>114</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>116</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>5</v>
+        <v>115</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B112" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C112" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B113" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C113" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B114" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C114" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B115" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C115" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
